--- a/results/mp/logistic/corona/confidence/126/desired-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/desired-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,22 +40,25 @@
     <t>name</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>collapse</t>
+    <t>died</t>
   </si>
   <si>
     <t>fraud</t>
@@ -70,9 +73,6 @@
     <t>fears</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -88,6 +88,9 @@
     <t>free</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
@@ -100,7 +103,7 @@
     <t>hand</t>
   </si>
   <si>
-    <t>best</t>
+    <t>special</t>
   </si>
   <si>
     <t>strong</t>
@@ -109,61 +112,61 @@
     <t>safe</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>great</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>won</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>ready</t>
   </si>
   <si>
     <t>help</t>
@@ -172,9 +175,6 @@
     <t>please</t>
   </si>
   <si>
-    <t>ready</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -196,13 +196,16 @@
     <t>alert</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>safety</t>
-  </si>
-  <si>
-    <t>increase</t>
   </si>
 </sst>
 </file>
@@ -560,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,7 +574,7 @@
         <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -629,13 +632,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9473684210526315</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -647,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>22</v>
@@ -679,13 +682,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8918918918918919</v>
+        <v>0.8561643835616438</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>250</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>250</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -697,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>23</v>
@@ -753,13 +756,13 @@
         <v>24</v>
       </c>
       <c r="K5">
-        <v>0.9393939393939394</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -771,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -779,13 +782,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8493150684931506</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C6">
-        <v>248</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>248</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -797,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K6">
-        <v>0.9302325581395349</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -821,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -829,13 +832,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8275862068965517</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -847,19 +850,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K7">
-        <v>0.9230769230769231</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -871,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -879,13 +882,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7666666666666667</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -897,19 +900,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K8">
-        <v>0.9190600522193212</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L8">
-        <v>352</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>352</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -921,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -929,13 +932,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7222222222222222</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -947,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K9">
-        <v>0.9152542372881356</v>
+        <v>0.9190600522193212</v>
       </c>
       <c r="L9">
-        <v>54</v>
+        <v>352</v>
       </c>
       <c r="M9">
-        <v>54</v>
+        <v>352</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -971,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -979,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5873015873015873</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C10">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -997,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K10">
-        <v>0.9090909090909091</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L10">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1021,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1029,13 +1032,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4418604651162791</v>
+        <v>0.6084656084656085</v>
       </c>
       <c r="C11">
-        <v>228</v>
+        <v>115</v>
       </c>
       <c r="D11">
-        <v>228</v>
+        <v>115</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1047,19 +1050,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>288</v>
+        <v>74</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K11">
-        <v>0.9014084507042254</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L11">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="M11">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1071,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1079,13 +1082,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4117647058823529</v>
+        <v>0.5503875968992248</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>284</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>284</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1097,19 +1100,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>30</v>
+        <v>232</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K12">
-        <v>0.8936170212765957</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="L12">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="M12">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1121,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1129,13 +1132,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3066666666666666</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C13">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1147,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>32</v>
@@ -1179,13 +1182,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2013422818791946</v>
+        <v>0.2684563758389262</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D14">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1197,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K14">
-        <v>0.8888888888888888</v>
+        <v>0.890625</v>
       </c>
       <c r="L14">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="M14">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1221,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1229,13 +1232,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.1055555555555556</v>
+        <v>0.1583333333333333</v>
       </c>
       <c r="C15">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D15">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1247,19 +1250,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K15">
-        <v>0.8888888888888888</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L15">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="M15">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1271,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1279,13 +1282,13 @@
         <v>35</v>
       </c>
       <c r="K16">
-        <v>0.8875</v>
+        <v>0.875</v>
       </c>
       <c r="L16">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M16">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1297,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1305,13 +1308,13 @@
         <v>36</v>
       </c>
       <c r="K17">
-        <v>0.8793103448275862</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L17">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M17">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1323,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1331,13 +1334,13 @@
         <v>37</v>
       </c>
       <c r="K18">
-        <v>0.8773584905660378</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L18">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="M18">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1349,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1357,13 +1360,13 @@
         <v>38</v>
       </c>
       <c r="K19">
-        <v>0.875</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L19">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="M19">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1375,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1383,13 +1386,13 @@
         <v>39</v>
       </c>
       <c r="K20">
-        <v>0.8658536585365854</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L20">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1401,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1409,13 +1412,13 @@
         <v>40</v>
       </c>
       <c r="K21">
-        <v>0.8205128205128205</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L21">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1427,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1435,13 +1438,13 @@
         <v>41</v>
       </c>
       <c r="K22">
-        <v>0.8</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L22">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="M22">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1453,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1461,13 +1464,13 @@
         <v>42</v>
       </c>
       <c r="K23">
-        <v>0.7936507936507936</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L23">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="M23">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1479,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1490,10 +1493,10 @@
         <v>0.7916666666666666</v>
       </c>
       <c r="L24">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M24">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1505,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1513,13 +1516,13 @@
         <v>44</v>
       </c>
       <c r="K25">
-        <v>0.7916666666666666</v>
+        <v>0.78</v>
       </c>
       <c r="L25">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="M25">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1531,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1539,13 +1542,13 @@
         <v>45</v>
       </c>
       <c r="K26">
-        <v>0.7857142857142857</v>
+        <v>0.775</v>
       </c>
       <c r="L26">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M26">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1557,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1565,13 +1568,13 @@
         <v>46</v>
       </c>
       <c r="K27">
-        <v>0.7777777777777778</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L27">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1583,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1591,13 +1594,13 @@
         <v>47</v>
       </c>
       <c r="K28">
-        <v>0.775</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L28">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="M28">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1609,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1617,13 +1620,13 @@
         <v>48</v>
       </c>
       <c r="K29">
-        <v>0.7714285714285715</v>
+        <v>0.7529411764705882</v>
       </c>
       <c r="L29">
-        <v>27</v>
+        <v>256</v>
       </c>
       <c r="M29">
-        <v>27</v>
+        <v>256</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1635,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1643,13 +1646,13 @@
         <v>49</v>
       </c>
       <c r="K30">
-        <v>0.7411764705882353</v>
+        <v>0.75</v>
       </c>
       <c r="L30">
-        <v>252</v>
+        <v>36</v>
       </c>
       <c r="M30">
-        <v>252</v>
+        <v>36</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1661,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1669,13 +1672,13 @@
         <v>50</v>
       </c>
       <c r="K31">
-        <v>0.7288135593220338</v>
+        <v>0.75</v>
       </c>
       <c r="L31">
-        <v>215</v>
+        <v>21</v>
       </c>
       <c r="M31">
-        <v>215</v>
+        <v>21</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1687,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>80</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1695,13 +1698,13 @@
         <v>51</v>
       </c>
       <c r="K32">
-        <v>0.7154811715481172</v>
+        <v>0.735593220338983</v>
       </c>
       <c r="L32">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="M32">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1713,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1721,13 +1724,13 @@
         <v>52</v>
       </c>
       <c r="K33">
-        <v>0.7142857142857143</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L33">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="M33">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1739,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>8</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1799,13 +1802,13 @@
         <v>55</v>
       </c>
       <c r="K36">
-        <v>0.696969696969697</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L36">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1817,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1825,13 +1828,13 @@
         <v>56</v>
       </c>
       <c r="K37">
-        <v>0.6966292134831461</v>
+        <v>0.6629213483146067</v>
       </c>
       <c r="L37">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M37">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1843,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1851,13 +1854,13 @@
         <v>57</v>
       </c>
       <c r="K38">
-        <v>0.676923076923077</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L38">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M38">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1869,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1929,13 +1932,13 @@
         <v>60</v>
       </c>
       <c r="K41">
-        <v>0.4794520547945205</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="L41">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="M41">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1947,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1955,13 +1958,13 @@
         <v>61</v>
       </c>
       <c r="K42">
-        <v>0.4313725490196079</v>
+        <v>0.4794520547945205</v>
       </c>
       <c r="L42">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="M42">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1973,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1981,13 +1984,13 @@
         <v>62</v>
       </c>
       <c r="K43">
-        <v>0.3205128205128205</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="L43">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M43">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1999,7 +2002,33 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>53</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K44">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="L44">
+        <v>24</v>
+      </c>
+      <c r="M44">
+        <v>24</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
